--- a/paginas/control_interesado/aspirantes_C3.xlsx
+++ b/paginas/control_interesado/aspirantes_C3.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="382">
   <si>
     <t>FOLIO DE REGISTRO</t>
   </si>
@@ -65,274 +65,1102 @@
     <t>OBSERVACIONES</t>
   </si>
   <si>
-    <t>NI20200002</t>
+    <t>NI20200003</t>
   </si>
   <si>
     <t>2020-09-01</t>
   </si>
   <si>
-    <t>ROVS930406MPLDGN09</t>
+    <t>SARA960706MPLNMN09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANDOVAL </t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>ANA KAREN</t>
+  </si>
+  <si>
+    <t>ANA KAREN SANDOVAL  RAMOS</t>
+  </si>
+  <si>
+    <t>FEMENINO</t>
+  </si>
+  <si>
+    <t>1993-03-07</t>
+  </si>
+  <si>
+    <t>SSC-00567/2021</t>
+  </si>
+  <si>
+    <t>2021-03-01</t>
+  </si>
+  <si>
+    <t>SÃ</t>
+  </si>
+  <si>
+    <t>CANCELADO</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>NI20200004</t>
+  </si>
+  <si>
+    <t>PEHG921005HPLRRB04</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>GABRIEL</t>
+  </si>
+  <si>
+    <t>GABRIEL PEREZ HERNANDEZ</t>
+  </si>
+  <si>
+    <t>MASCULINO</t>
+  </si>
+  <si>
+    <t>1993-03-08</t>
+  </si>
+  <si>
+    <t>00568</t>
+  </si>
+  <si>
+    <t>APROBADO</t>
+  </si>
+  <si>
+    <t>NI20200005</t>
+  </si>
+  <si>
+    <t>RAGE001211HPLMZDA0</t>
+  </si>
+  <si>
+    <t>GUZMAN</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>EDUARDO RAMOS GUZMAN</t>
+  </si>
+  <si>
+    <t>1993-03-09</t>
+  </si>
+  <si>
+    <t>00569</t>
+  </si>
+  <si>
+    <t>NI20200007</t>
+  </si>
+  <si>
+    <t>CAMV930125HPLMRC09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMPOS </t>
+  </si>
+  <si>
+    <t>MAURNO</t>
+  </si>
+  <si>
+    <t>VICTOR</t>
+  </si>
+  <si>
+    <t>VICTOR CAMPOS  MAURNO</t>
+  </si>
+  <si>
+    <t>1993-03-11</t>
+  </si>
+  <si>
+    <t>00570</t>
+  </si>
+  <si>
+    <t>NI20200008</t>
+  </si>
+  <si>
+    <t>TOSA941015HPLRNN01</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>ANDRES ABIMAEL</t>
+  </si>
+  <si>
+    <t>ANDRES ABIMAEL TORRES SANCHEZ</t>
+  </si>
+  <si>
+    <t>1993-03-12</t>
+  </si>
+  <si>
+    <t>00571</t>
+  </si>
+  <si>
+    <t>NI20200010</t>
+  </si>
+  <si>
+    <t>SAFG960426HPLLLR09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALGADO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLORES </t>
+  </si>
+  <si>
+    <t>GERARDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GERARDO SALGADO  FLORES </t>
+  </si>
+  <si>
+    <t>1993-03-14</t>
+  </si>
+  <si>
+    <t>00572</t>
+  </si>
+  <si>
+    <t>NI20200011</t>
+  </si>
+  <si>
+    <t>SARG860825MPLNYB05</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>GABRIELA</t>
+  </si>
+  <si>
+    <t>GABRIELA SANCHEZ REYES</t>
+  </si>
+  <si>
+    <t>1993-03-15</t>
+  </si>
+  <si>
+    <t>00574</t>
+  </si>
+  <si>
+    <t>NI20200012</t>
+  </si>
+  <si>
+    <t>2020-09-02</t>
+  </si>
+  <si>
+    <t>VASJ970614HPLRRS03</t>
+  </si>
+  <si>
+    <t>VARA</t>
+  </si>
+  <si>
+    <t>SORIANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JESUS ALEJANDRO </t>
+  </si>
+  <si>
+    <t>JESUS ALEJANDRO  VARA SORIANO</t>
+  </si>
+  <si>
+    <t>1993-03-16</t>
+  </si>
+  <si>
+    <t>00573</t>
+  </si>
+  <si>
+    <t>NI20210348</t>
+  </si>
+  <si>
+    <t>2021-06-04</t>
+  </si>
+  <si>
+    <t>MAHJ280603MSPRRV09</t>
+  </si>
+  <si>
+    <t>MARÃA</t>
+  </si>
+  <si>
+    <t>MARTÃNEZ</t>
+  </si>
+  <si>
+    <t>HERNÃNDEZ</t>
+  </si>
+  <si>
+    <t>HERNÃNDEZ MARÃA MARTÃNEZ</t>
+  </si>
+  <si>
+    <t>1994-08-03</t>
+  </si>
+  <si>
+    <t>C0563</t>
+  </si>
+  <si>
+    <t>2021-06-05</t>
+  </si>
+  <si>
+    <t>C32021</t>
+  </si>
+  <si>
+    <t>sin obsservaciones</t>
+  </si>
+  <si>
+    <t>NI20200016</t>
+  </si>
+  <si>
+    <t>LOZG980601MPLPPD09</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>ZEPEDA</t>
+  </si>
+  <si>
+    <t>MARIA GUADALUPE</t>
+  </si>
+  <si>
+    <t>MARIA GUADALUPE LOPEZ ZEPEDA</t>
+  </si>
+  <si>
+    <t>1993-03-20</t>
+  </si>
+  <si>
+    <t>00575</t>
+  </si>
+  <si>
+    <t>NI20200017</t>
+  </si>
+  <si>
+    <t>CULI000327MMCRPTA9</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>ITZEL MIREYA</t>
+  </si>
+  <si>
+    <t>ITZEL MIREYA CRUZ LOPEZ</t>
+  </si>
+  <si>
+    <t>1993-03-21</t>
+  </si>
+  <si>
+    <t>NI20200018</t>
+  </si>
+  <si>
+    <t>2020-09-03</t>
+  </si>
+  <si>
+    <t>OARN830202MPLLDD06</t>
+  </si>
+  <si>
+    <t>OLANO</t>
   </si>
   <si>
     <t>RODRIGUEZ</t>
   </si>
   <si>
+    <t>NADIA MARIA</t>
+  </si>
+  <si>
+    <t>NADIA MARIA OLANO RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>1993-03-22</t>
+  </si>
+  <si>
+    <t>NI20200019</t>
+  </si>
+  <si>
+    <t>MARF970302HPLRMR07</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>FREDY</t>
+  </si>
+  <si>
+    <t>FREDY MARTINEZ ROMERO</t>
+  </si>
+  <si>
+    <t>1993-03-23</t>
+  </si>
+  <si>
+    <t>NI20200026</t>
+  </si>
+  <si>
+    <t>CISJ910122MPLHRD01</t>
+  </si>
+  <si>
+    <t>CHICO</t>
+  </si>
+  <si>
+    <t>SARTILLO</t>
+  </si>
+  <si>
+    <t>JUDITH</t>
+  </si>
+  <si>
+    <t>JUDITH CHICO SARTILLO</t>
+  </si>
+  <si>
+    <t>1993-03-30</t>
+  </si>
+  <si>
+    <t>NI20200027</t>
+  </si>
+  <si>
+    <t>SAOE950322HPLNRD06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANTOS </t>
+  </si>
+  <si>
+    <t>ORTEGA</t>
+  </si>
+  <si>
+    <t>EDUARDO DANIEL</t>
+  </si>
+  <si>
+    <t>EDUARDO DANIEL SANTOS  ORTEGA</t>
+  </si>
+  <si>
+    <t>1993-03-31</t>
+  </si>
+  <si>
+    <t>NI20200028</t>
+  </si>
+  <si>
+    <t>MOPV970607HPLRRC05</t>
+  </si>
+  <si>
+    <t>MORA</t>
+  </si>
+  <si>
+    <t>VICTOR HUGO</t>
+  </si>
+  <si>
+    <t>VICTOR HUGO MORA PEREZ</t>
+  </si>
+  <si>
+    <t>1993-04-01</t>
+  </si>
+  <si>
+    <t>NI20200029</t>
+  </si>
+  <si>
+    <t>HECS820324HPLRBL01</t>
+  </si>
+  <si>
+    <t>CABALLERO</t>
+  </si>
+  <si>
+    <t>JOSÃ‰ SALVADOR</t>
+  </si>
+  <si>
+    <t>JOSÃ‰ SALVADOR HERNANDEZ CABALLERO</t>
+  </si>
+  <si>
+    <t>1993-04-02</t>
+  </si>
+  <si>
+    <t>NI20200030</t>
+  </si>
+  <si>
+    <t>2020-09-04</t>
+  </si>
+  <si>
+    <t>PEFE940510MPLRLR09</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERANDI VICTORIA </t>
+  </si>
+  <si>
+    <t>ERANDI VICTORIA  PEREZ FLORES</t>
+  </si>
+  <si>
+    <t>1993-04-03</t>
+  </si>
+  <si>
+    <t>NI20200031</t>
+  </si>
+  <si>
+    <t>IABB981104HPLZLR04</t>
+  </si>
+  <si>
+    <t>IZAGUIRRE</t>
+  </si>
+  <si>
+    <t>BELLO</t>
+  </si>
+  <si>
+    <t>BRIAN EDUARDO</t>
+  </si>
+  <si>
+    <t>BRIAN EDUARDO IZAGUIRRE BELLO</t>
+  </si>
+  <si>
+    <t>1993-04-04</t>
+  </si>
+  <si>
+    <t>NI20200032</t>
+  </si>
+  <si>
+    <t>BAZC981208HPLLPR03</t>
+  </si>
+  <si>
+    <t>BALEON</t>
+  </si>
+  <si>
+    <t>CARLOS IVAN</t>
+  </si>
+  <si>
+    <t>CARLOS IVAN BALEON ZEPEDA</t>
+  </si>
+  <si>
+    <t>1993-04-05</t>
+  </si>
+  <si>
+    <t>NI20200035</t>
+  </si>
+  <si>
+    <t>2020-09-07</t>
+  </si>
+  <si>
+    <t>JAHA900824MPLCRR06</t>
+  </si>
+  <si>
+    <t>JACOBO</t>
+  </si>
+  <si>
+    <t>AURELIA</t>
+  </si>
+  <si>
+    <t>AURELIA JACOBO HERNANDEZ</t>
+  </si>
+  <si>
+    <t>1993-04-08</t>
+  </si>
+  <si>
+    <t>NI20200036</t>
+  </si>
+  <si>
+    <t>OEPM940418HDFLRG00</t>
+  </si>
+  <si>
+    <t>OLVERA</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL OLVERA PEREZ</t>
+  </si>
+  <si>
+    <t>1993-04-09</t>
+  </si>
+  <si>
+    <t>NI20200037</t>
+  </si>
+  <si>
+    <t>ZAHA980704MPLMRB08</t>
+  </si>
+  <si>
+    <t>ZAMBRANO</t>
+  </si>
+  <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
+    <t>ABIGAIL</t>
+  </si>
+  <si>
+    <t>ABIGAIL ZAMBRANO HUERTA</t>
+  </si>
+  <si>
+    <t>1993-04-10</t>
+  </si>
+  <si>
+    <t>NI20200039</t>
+  </si>
+  <si>
+    <t>LICC890514HTLLRN06</t>
+  </si>
+  <si>
+    <t>LILLO</t>
+  </si>
+  <si>
+    <t>CARRO</t>
+  </si>
+  <si>
+    <t>CONSTANTINO</t>
+  </si>
+  <si>
+    <t>CONSTANTINO LILLO CARRO</t>
+  </si>
+  <si>
+    <t>1993-04-12</t>
+  </si>
+  <si>
+    <t>NI20200040</t>
+  </si>
+  <si>
+    <t>PACF981203MPLNSR05</t>
+  </si>
+  <si>
+    <t>PANTLE</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>MARIA FERNANDA</t>
+  </si>
+  <si>
+    <t>MARIA FERNANDA PANTLE CASTILLO</t>
+  </si>
+  <si>
+    <t>1993-04-13</t>
+  </si>
+  <si>
+    <t>NI20200041</t>
+  </si>
+  <si>
+    <t>BEHJ971206HPLLRR07</t>
+  </si>
+  <si>
+    <t>BELTRAN</t>
+  </si>
+  <si>
+    <t>JORGE EMMANUEL</t>
+  </si>
+  <si>
+    <t>JORGE EMMANUEL BELTRAN HERNANDEZ</t>
+  </si>
+  <si>
+    <t>1993-04-14</t>
+  </si>
+  <si>
+    <t>NI20200042</t>
+  </si>
+  <si>
+    <t>JUHJ901115MPLSRD00</t>
+  </si>
+  <si>
+    <t>JUSTO</t>
+  </si>
+  <si>
+    <t>JUDITH JUSTO HUERTA</t>
+  </si>
+  <si>
+    <t>1993-04-15</t>
+  </si>
+  <si>
+    <t>NI20200043</t>
+  </si>
+  <si>
+    <t>2020-09-08</t>
+  </si>
+  <si>
+    <t>CULA970911HPLMCN05</t>
+  </si>
+  <si>
+    <t>CUAMAYT</t>
+  </si>
+  <si>
+    <t>LUCAS</t>
+  </si>
+  <si>
+    <t>ANDRES</t>
+  </si>
+  <si>
+    <t>ANDRES CUAMAYT LUCAS</t>
+  </si>
+  <si>
+    <t>1993-04-16</t>
+  </si>
+  <si>
+    <t>NI20200044</t>
+  </si>
+  <si>
+    <t>CULM950601MPLMCR09</t>
+  </si>
+  <si>
+    <t>MARICRUZ</t>
+  </si>
+  <si>
+    <t>MARICRUZ CUAMAYT LUCAS</t>
+  </si>
+  <si>
+    <t>1993-04-17</t>
+  </si>
+  <si>
+    <t>NI20200046</t>
+  </si>
+  <si>
+    <t>TEGG941018HGRJNR07</t>
+  </si>
+  <si>
+    <t>TEJACAL</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>JOSE GERARDO</t>
+  </si>
+  <si>
+    <t>JOSE GERARDO TEJACAL GONZALEZ</t>
+  </si>
+  <si>
+    <t>1993-04-19</t>
+  </si>
+  <si>
+    <t>NI20200047</t>
+  </si>
+  <si>
+    <t>LEGA970619MPLNRR09</t>
+  </si>
+  <si>
+    <t>LEON</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>ARIANET</t>
+  </si>
+  <si>
+    <t>ARIANET LEON GARCIA</t>
+  </si>
+  <si>
+    <t>1993-04-20</t>
+  </si>
+  <si>
+    <t>NI20200049</t>
+  </si>
+  <si>
+    <t>2020-09-09</t>
+  </si>
+  <si>
+    <t>BABA911209MPLRRD07</t>
+  </si>
+  <si>
+    <t>BAIRAN</t>
+  </si>
+  <si>
+    <t>BURGOS</t>
+  </si>
+  <si>
+    <t>ADRIANA</t>
+  </si>
+  <si>
+    <t>ADRIANA BAIRAN BURGOS</t>
+  </si>
+  <si>
+    <t>1993-04-22</t>
+  </si>
+  <si>
+    <t>NI20200050</t>
+  </si>
+  <si>
+    <t>CUHP951206MPLRRT00</t>
+  </si>
+  <si>
+    <t>PATRICIA</t>
+  </si>
+  <si>
+    <t>PATRICIA CRUZ HUERTA</t>
+  </si>
+  <si>
+    <t>1993-04-23</t>
+  </si>
+  <si>
+    <t>NI20200051</t>
+  </si>
+  <si>
+    <t>JAML870103HPLRNN05</t>
+  </si>
+  <si>
+    <t>JARAMILLO</t>
+  </si>
+  <si>
+    <t>MONGE</t>
+  </si>
+  <si>
+    <t>LEONARDO</t>
+  </si>
+  <si>
+    <t>LEONARDO JARAMILLO MONGE</t>
+  </si>
+  <si>
+    <t>1993-04-24</t>
+  </si>
+  <si>
+    <t>NI20200052</t>
+  </si>
+  <si>
+    <t>VECS970822MTLGNN03</t>
+  </si>
+  <si>
     <t>VEGA</t>
   </si>
   <si>
+    <t>CANTERO</t>
+  </si>
+  <si>
     <t>SANDRA</t>
   </si>
   <si>
-    <t>SANDRA RODRIGUEZ VEGA</t>
-  </si>
-  <si>
-    <t>FEMENINO</t>
-  </si>
-  <si>
-    <t>1993-03-06</t>
-  </si>
-  <si>
-    <t>2021-04-02</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>APROBADO</t>
-  </si>
-  <si>
-    <t>2021-03-26</t>
-  </si>
-  <si>
-    <t>uiouio</t>
-  </si>
-  <si>
-    <t>NI20200006</t>
-  </si>
-  <si>
-    <t>REAA841015HPLSGN05</t>
-  </si>
-  <si>
-    <t>RESENDIZ</t>
-  </si>
-  <si>
-    <t>AGUILA</t>
-  </si>
-  <si>
-    <t>ANGEL</t>
-  </si>
-  <si>
-    <t>ANGEL RESENDIZ AGUILA</t>
-  </si>
-  <si>
-    <t>MASCULINO</t>
-  </si>
-  <si>
-    <t>1993-03-10</t>
-  </si>
-  <si>
-    <t>00567</t>
-  </si>
-  <si>
-    <t>S?</t>
-  </si>
-  <si>
-    <t>2021-03-30</t>
-  </si>
-  <si>
-    <t>NI20200003</t>
-  </si>
-  <si>
-    <t>SARA960706MPLNMN09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SANDOVAL </t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>ANA KAREN</t>
-  </si>
-  <si>
-    <t>ANA KAREN SANDOVAL  RAMOS</t>
-  </si>
-  <si>
-    <t>1993-03-07</t>
-  </si>
-  <si>
-    <t>1500-01-01</t>
-  </si>
-  <si>
-    <t>NI20200004</t>
-  </si>
-  <si>
-    <t>PEHG921005HPLRRB04</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>GABRIEL</t>
-  </si>
-  <si>
-    <t>GABRIEL PEREZ HERNANDEZ</t>
-  </si>
-  <si>
-    <t>1993-03-08</t>
-  </si>
-  <si>
-    <t>NI20200005</t>
-  </si>
-  <si>
-    <t>RAGE001211HPLMZDA0</t>
-  </si>
-  <si>
-    <t>GUZMAN</t>
-  </si>
-  <si>
-    <t>EDUARDO</t>
-  </si>
-  <si>
-    <t>EDUARDO RAMOS GUZMAN</t>
-  </si>
-  <si>
-    <t>1993-03-09</t>
-  </si>
-  <si>
-    <t>NI20200007</t>
-  </si>
-  <si>
-    <t>CAMV930125HPLMRC09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMPOS </t>
-  </si>
-  <si>
-    <t>MAURNO</t>
-  </si>
-  <si>
-    <t>VICTOR</t>
-  </si>
-  <si>
-    <t>VICTOR CAMPOS  MAURNO</t>
-  </si>
-  <si>
-    <t>1993-03-11</t>
-  </si>
-  <si>
-    <t>NI20200013</t>
-  </si>
-  <si>
-    <t>2020-09-02</t>
-  </si>
-  <si>
-    <t>FIDF900426HPLRZR05</t>
-  </si>
-  <si>
-    <t>FIERRO</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>FRANCISCO JAVIER</t>
-  </si>
-  <si>
-    <t>FRANCISCO JAVIER FIERRO DIAZ</t>
-  </si>
-  <si>
-    <t>1993-03-17</t>
-  </si>
-  <si>
-    <t>NI20200017</t>
-  </si>
-  <si>
-    <t>CULI000327MMCRPTA9</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>ITZEL MIREYA</t>
-  </si>
-  <si>
-    <t>ITZEL MIREYA CRUZ LOPEZ</t>
-  </si>
-  <si>
-    <t>1993-03-21</t>
-  </si>
-  <si>
-    <t>NI20200016</t>
-  </si>
-  <si>
-    <t>LOZG980601MPLPPD09</t>
-  </si>
-  <si>
-    <t>ZEPEDA</t>
-  </si>
-  <si>
-    <t>MARIA GUADALUPE</t>
-  </si>
-  <si>
-    <t>MARIA GUADALUPE LOPEZ ZEPEDA</t>
-  </si>
-  <si>
-    <t>1993-03-20</t>
-  </si>
-  <si>
-    <t>NI20200012</t>
-  </si>
-  <si>
-    <t>VASJ970614HPLRRS03</t>
-  </si>
-  <si>
-    <t>VARA</t>
-  </si>
-  <si>
-    <t>SORIANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JESUS ALEJANDRO </t>
-  </si>
-  <si>
-    <t>JESUS ALEJANDRO  VARA SORIANO</t>
-  </si>
-  <si>
-    <t>1993-03-16</t>
-  </si>
-  <si>
-    <t>NI20210348</t>
-  </si>
-  <si>
-    <t>2021-04-07</t>
-  </si>
-  <si>
-    <t>OCVJIUFPOVRO48U984</t>
-  </si>
-  <si>
-    <t>SALINAS</t>
+    <t>SANDRA VEGA CANTERO</t>
+  </si>
+  <si>
+    <t>1993-04-25</t>
+  </si>
+  <si>
+    <t>NI20200053</t>
+  </si>
+  <si>
+    <t>FOCP001113MPLLRTA2</t>
+  </si>
+  <si>
+    <t>CORONA</t>
+  </si>
+  <si>
+    <t>PATRICIA MARIAN</t>
+  </si>
+  <si>
+    <t>PATRICIA MARIAN FLORES CORONA</t>
+  </si>
+  <si>
+    <t>1993-04-26</t>
+  </si>
+  <si>
+    <t>NI20200054</t>
+  </si>
+  <si>
+    <t>SARS881008HPLLCR04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALAZAR </t>
+  </si>
+  <si>
+    <t>ROCHA</t>
+  </si>
+  <si>
+    <t>SERGIO ISAAC</t>
+  </si>
+  <si>
+    <t>SERGIO ISAAC SALAZAR  ROCHA</t>
+  </si>
+  <si>
+    <t>1993-04-27</t>
+  </si>
+  <si>
+    <t>NI20200055</t>
+  </si>
+  <si>
+    <t>TACM890302HPLLRG09</t>
+  </si>
+  <si>
+    <t>TLAPAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORTES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIGUEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIGUEL  TLAPAN CORTES </t>
+  </si>
+  <si>
+    <t>1993-04-28</t>
+  </si>
+  <si>
+    <t>NI20200056</t>
+  </si>
+  <si>
+    <t>ROMJ990712HPLDRL02</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>JULIAN ENRIQUE</t>
+  </si>
+  <si>
+    <t>JULIAN ENRIQUE RODRIGUEZ MORALES</t>
+  </si>
+  <si>
+    <t>1993-04-29</t>
+  </si>
+  <si>
+    <t>NI20200057</t>
+  </si>
+  <si>
+    <t>AENL910109HPLRRS05</t>
+  </si>
+  <si>
+    <t>ARREDONDO</t>
+  </si>
+  <si>
+    <t>NARCISO</t>
+  </si>
+  <si>
+    <t>LUIS ANGEL</t>
+  </si>
+  <si>
+    <t>LUIS ANGEL ARREDONDO NARCISO</t>
+  </si>
+  <si>
+    <t>1993-04-30</t>
+  </si>
+  <si>
+    <t>NI20200059</t>
+  </si>
+  <si>
+    <t>2020-09-10</t>
+  </si>
+  <si>
+    <t>SACN800703HDFLLH08</t>
+  </si>
+  <si>
+    <t>SALAS</t>
+  </si>
+  <si>
+    <t>CALIXTO</t>
+  </si>
+  <si>
+    <t>NAHUM</t>
+  </si>
+  <si>
+    <t>NAHUM SALAS CALIXTO</t>
+  </si>
+  <si>
+    <t>1993-05-02</t>
+  </si>
+  <si>
+    <t>NI20200060</t>
+  </si>
+  <si>
+    <t>MAZJ821014MPLRMS08</t>
+  </si>
+  <si>
+    <t>ZAMORA</t>
+  </si>
+  <si>
+    <t>JOSEFINA</t>
+  </si>
+  <si>
+    <t>JOSEFINA MARTINEZ ZAMORA</t>
+  </si>
+  <si>
+    <t>1993-05-03</t>
+  </si>
+  <si>
+    <t>NI20200063</t>
+  </si>
+  <si>
+    <t>2020-09-11</t>
+  </si>
+  <si>
+    <t>MEMN821021HPLNRS02</t>
+  </si>
+  <si>
+    <t>MENDEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MORENO </t>
+  </si>
+  <si>
+    <t>NESTOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NESTOR MENDEZ MORENO </t>
+  </si>
+  <si>
+    <t>1993-05-06</t>
+  </si>
+  <si>
+    <t>NI20200064</t>
+  </si>
+  <si>
+    <t>PAME931230MPLVCS02</t>
+  </si>
+  <si>
+    <t>PAVON</t>
+  </si>
+  <si>
+    <t>MACIAS</t>
+  </si>
+  <si>
+    <t>MARIA ESTEPHANIA</t>
+  </si>
+  <si>
+    <t>MARIA ESTEPHANIA PAVON MACIAS</t>
+  </si>
+  <si>
+    <t>1993-05-07</t>
+  </si>
+  <si>
+    <t>NI20200066</t>
+  </si>
+  <si>
+    <t>LORM940323HPLPMR05</t>
   </si>
   <si>
     <t>RAMIREZ</t>
   </si>
   <si>
-    <t>CESAR</t>
-  </si>
-  <si>
-    <t>CESAR SALINAS RAMIREZ</t>
-  </si>
-  <si>
-    <t>1993-12-11</t>
-  </si>
-  <si>
-    <t>2021-04-08</t>
+    <t>MARCO ANTONIO</t>
+  </si>
+  <si>
+    <t>MARCO ANTONIO LOPEZ RAMIREZ</t>
+  </si>
+  <si>
+    <t>1993-05-09</t>
+  </si>
+  <si>
+    <t>NI20200067</t>
+  </si>
+  <si>
+    <t>2020-09-14</t>
+  </si>
+  <si>
+    <t>BATD990807MPLRVY06</t>
+  </si>
+  <si>
+    <t>BARCENAS</t>
+  </si>
+  <si>
+    <t>TOVAR</t>
+  </si>
+  <si>
+    <t>DAYRAN MISSOURI</t>
+  </si>
+  <si>
+    <t>DAYRAN MISSOURI BARCENAS TOVAR</t>
+  </si>
+  <si>
+    <t>1993-05-10</t>
+  </si>
+  <si>
+    <t>NI20200068</t>
+  </si>
+  <si>
+    <t>PEQM981204HPLRRNR02</t>
+  </si>
+  <si>
+    <t>PERALTA</t>
+  </si>
+  <si>
+    <t>QUINTERO</t>
+  </si>
+  <si>
+    <t>ARTURO EYAIR</t>
+  </si>
+  <si>
+    <t>ARTURO EYAIR PERALTA QUINTERO</t>
+  </si>
+  <si>
+    <t>1993-05-11</t>
+  </si>
+  <si>
+    <t>NI20200069</t>
+  </si>
+  <si>
+    <t>MEFA020206MPLRLDA7</t>
+  </si>
+  <si>
+    <t>MERCADO</t>
+  </si>
+  <si>
+    <t>ADRIANA MERCADO FLORES</t>
+  </si>
+  <si>
+    <t>1993-05-12</t>
+  </si>
+  <si>
+    <t>NI20200070</t>
+  </si>
+  <si>
+    <t>2020-09-17</t>
+  </si>
+  <si>
+    <t>PEGG900329MPLRZB07</t>
+  </si>
+  <si>
+    <t>PÃ‰REZ</t>
+  </si>
+  <si>
+    <t>GABRIELA YASIRETH</t>
+  </si>
+  <si>
+    <t>GABRIELA YASIRETH PÃ‰REZ GUZMAN</t>
+  </si>
+  <si>
+    <t>1993-05-13</t>
+  </si>
+  <si>
+    <t>NI20200071</t>
+  </si>
+  <si>
+    <t>2020-09-18</t>
+  </si>
+  <si>
+    <t>GAPM910104MMCRRR02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEREZ </t>
+  </si>
+  <si>
+    <t>MIRIAM AZUCENA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIRIAM AZUCENA GARCIA PEREZ </t>
+  </si>
+  <si>
+    <t>1993-05-14</t>
+  </si>
+  <si>
+    <t>NI20200072</t>
+  </si>
+  <si>
+    <t>JILI930924HPLMZV02</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>LOZADA</t>
+  </si>
+  <si>
+    <t>IVAN DAVID</t>
+  </si>
+  <si>
+    <t>IVAN DAVID JIMENEZ LOZADA</t>
+  </si>
+  <si>
+    <t>1993-05-15</t>
   </si>
 </sst>
 </file>
@@ -671,7 +1499,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,27 +1603,25 @@
       <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="J2">
-        <v>566</v>
+      <c r="J2" t="s">
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N2">
-        <v>67677667</v>
+        <v>1001</v>
       </c>
       <c r="O2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" t="s">
         <v>29</v>
       </c>
+      <c r="P2"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
@@ -829,118 +1655,130 @@
         <v>38</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
         <v>39</v>
       </c>
-      <c r="M3" t="s">
-        <v>27</v>
-      </c>
       <c r="N3">
-        <v>678678</v>
+        <v>1002</v>
       </c>
       <c r="O3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="P3"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
         <v>42</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>43</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>44</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
         <v>45</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>46</v>
       </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4">
-        <v>11567</v>
-      </c>
       <c r="K4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M4" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="N4">
-        <v>67677667</v>
+        <v>1003</v>
       </c>
       <c r="O4" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="P4"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
         <v>50</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>51</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>52</v>
-      </c>
-      <c r="F5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" t="s">
-        <v>54</v>
       </c>
       <c r="H5" t="s">
         <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
+        <v>53</v>
+      </c>
+      <c r="J5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5">
+        <v>1004</v>
+      </c>
+      <c r="O5" t="s">
+        <v>29</v>
+      </c>
       <c r="P5"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
         <v>57</v>
-      </c>
-      <c r="D6" t="s">
-        <v>44</v>
       </c>
       <c r="E6" t="s">
         <v>58</v>
@@ -957,62 +1795,86 @@
       <c r="I6" t="s">
         <v>61</v>
       </c>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
+      <c r="J6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6">
+        <v>1005</v>
+      </c>
+      <c r="O6" t="s">
+        <v>29</v>
+      </c>
       <c r="P6"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H7" t="s">
         <v>36</v>
       </c>
       <c r="I7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
+        <v>69</v>
+      </c>
+      <c r="J7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7">
+        <v>1006</v>
+      </c>
+      <c r="O7" t="s">
+        <v>29</v>
+      </c>
       <c r="P7"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
         <v>73</v>
@@ -1024,174 +1886,1652 @@
         <v>75</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I8" t="s">
         <v>76</v>
       </c>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
+      <c r="J8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8">
+        <v>1008</v>
+      </c>
+      <c r="O8" t="s">
+        <v>29</v>
+      </c>
       <c r="P8"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>83</v>
-      </c>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
+        <v>85</v>
+      </c>
+      <c r="J9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9">
+        <v>1007</v>
+      </c>
+      <c r="O9" t="s">
+        <v>29</v>
+      </c>
       <c r="P9"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G10" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H10" t="s">
         <v>23</v>
       </c>
       <c r="I10" t="s">
-        <v>89</v>
-      </c>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
+        <v>94</v>
+      </c>
+      <c r="J10" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" t="s">
+        <v>96</v>
+      </c>
+      <c r="L10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" t="s">
+        <v>97</v>
+      </c>
+      <c r="O10" t="s">
+        <v>96</v>
+      </c>
+      <c r="P10" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G11" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="H11" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I11" t="s">
-        <v>96</v>
-      </c>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11">
+        <v>1009</v>
+      </c>
+      <c r="O11" t="s">
+        <v>29</v>
+      </c>
       <c r="P11"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E12" t="s">
         <v>101</v>
       </c>
       <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>140</v>
+      </c>
+      <c r="H16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" t="s">
+        <v>146</v>
+      </c>
+      <c r="H17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" t="s">
+        <v>147</v>
+      </c>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G18" t="s">
+        <v>152</v>
+      </c>
+      <c r="H18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" t="s">
+        <v>153</v>
+      </c>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" t="s">
+        <v>159</v>
+      </c>
+      <c r="H19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" t="s">
+        <v>160</v>
+      </c>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" t="s">
+        <v>162</v>
+      </c>
+      <c r="D20" t="s">
+        <v>163</v>
+      </c>
+      <c r="E20" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" t="s">
+        <v>165</v>
+      </c>
+      <c r="G20" t="s">
+        <v>166</v>
+      </c>
+      <c r="H20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" t="s">
+        <v>167</v>
+      </c>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D21" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" t="s">
         <v>102</v>
       </c>
-      <c r="G12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="F21" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21" t="s">
+        <v>172</v>
+      </c>
+      <c r="H21" t="s">
         <v>36</v>
       </c>
-      <c r="I12" t="s">
-        <v>104</v>
-      </c>
-      <c r="J12" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" t="s">
-        <v>105</v>
-      </c>
-      <c r="L12" t="s">
-        <v>39</v>
-      </c>
-      <c r="M12" t="s">
-        <v>27</v>
-      </c>
-      <c r="N12">
-        <v>678678</v>
-      </c>
-      <c r="O12" t="s">
-        <v>105</v>
-      </c>
-      <c r="P12"/>
+      <c r="I21" t="s">
+        <v>173</v>
+      </c>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" t="s">
+        <v>176</v>
+      </c>
+      <c r="D22" t="s">
+        <v>177</v>
+      </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" t="s">
+        <v>178</v>
+      </c>
+      <c r="G22" t="s">
+        <v>179</v>
+      </c>
+      <c r="H22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" t="s">
+        <v>180</v>
+      </c>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" t="s">
+        <v>183</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" t="s">
+        <v>184</v>
+      </c>
+      <c r="G23" t="s">
+        <v>185</v>
+      </c>
+      <c r="H23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" t="s">
+        <v>186</v>
+      </c>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" t="s">
+        <v>188</v>
+      </c>
+      <c r="D24" t="s">
+        <v>189</v>
+      </c>
+      <c r="E24" t="s">
+        <v>190</v>
+      </c>
+      <c r="F24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G24" t="s">
+        <v>192</v>
+      </c>
+      <c r="H24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" t="s">
+        <v>193</v>
+      </c>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" t="s">
+        <v>194</v>
+      </c>
+      <c r="B25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" t="s">
+        <v>195</v>
+      </c>
+      <c r="D25" t="s">
+        <v>196</v>
+      </c>
+      <c r="E25" t="s">
+        <v>197</v>
+      </c>
+      <c r="F25" t="s">
+        <v>198</v>
+      </c>
+      <c r="G25" t="s">
+        <v>199</v>
+      </c>
+      <c r="H25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" t="s">
+        <v>200</v>
+      </c>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" t="s">
+        <v>201</v>
+      </c>
+      <c r="B26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" t="s">
+        <v>202</v>
+      </c>
+      <c r="D26" t="s">
+        <v>203</v>
+      </c>
+      <c r="E26" t="s">
+        <v>204</v>
+      </c>
+      <c r="F26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G26" t="s">
+        <v>206</v>
+      </c>
+      <c r="H26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" t="s">
+        <v>207</v>
+      </c>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" t="s">
+        <v>208</v>
+      </c>
+      <c r="B27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" t="s">
+        <v>209</v>
+      </c>
+      <c r="D27" t="s">
+        <v>210</v>
+      </c>
+      <c r="E27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" t="s">
+        <v>211</v>
+      </c>
+      <c r="G27" t="s">
+        <v>212</v>
+      </c>
+      <c r="H27" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" t="s">
+        <v>213</v>
+      </c>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" t="s">
+        <v>214</v>
+      </c>
+      <c r="B28" t="s">
+        <v>175</v>
+      </c>
+      <c r="C28" t="s">
+        <v>215</v>
+      </c>
+      <c r="D28" t="s">
+        <v>216</v>
+      </c>
+      <c r="E28" t="s">
+        <v>190</v>
+      </c>
+      <c r="F28" t="s">
+        <v>132</v>
+      </c>
+      <c r="G28" t="s">
+        <v>217</v>
+      </c>
+      <c r="H28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" t="s">
+        <v>218</v>
+      </c>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" t="s">
+        <v>219</v>
+      </c>
+      <c r="B29" t="s">
+        <v>220</v>
+      </c>
+      <c r="C29" t="s">
+        <v>221</v>
+      </c>
+      <c r="D29" t="s">
+        <v>222</v>
+      </c>
+      <c r="E29" t="s">
+        <v>223</v>
+      </c>
+      <c r="F29" t="s">
+        <v>224</v>
+      </c>
+      <c r="G29" t="s">
+        <v>225</v>
+      </c>
+      <c r="H29" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" t="s">
+        <v>226</v>
+      </c>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" t="s">
+        <v>227</v>
+      </c>
+      <c r="B30" t="s">
+        <v>220</v>
+      </c>
+      <c r="C30" t="s">
+        <v>228</v>
+      </c>
+      <c r="D30" t="s">
+        <v>222</v>
+      </c>
+      <c r="E30" t="s">
+        <v>223</v>
+      </c>
+      <c r="F30" t="s">
+        <v>229</v>
+      </c>
+      <c r="G30" t="s">
+        <v>230</v>
+      </c>
+      <c r="H30" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" t="s">
+        <v>231</v>
+      </c>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" t="s">
+        <v>232</v>
+      </c>
+      <c r="B31" t="s">
+        <v>220</v>
+      </c>
+      <c r="C31" t="s">
+        <v>233</v>
+      </c>
+      <c r="D31" t="s">
+        <v>234</v>
+      </c>
+      <c r="E31" t="s">
+        <v>235</v>
+      </c>
+      <c r="F31" t="s">
+        <v>236</v>
+      </c>
+      <c r="G31" t="s">
+        <v>237</v>
+      </c>
+      <c r="H31" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31" t="s">
+        <v>238</v>
+      </c>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" t="s">
+        <v>239</v>
+      </c>
+      <c r="B32" t="s">
+        <v>220</v>
+      </c>
+      <c r="C32" t="s">
+        <v>240</v>
+      </c>
+      <c r="D32" t="s">
+        <v>241</v>
+      </c>
+      <c r="E32" t="s">
+        <v>242</v>
+      </c>
+      <c r="F32" t="s">
+        <v>243</v>
+      </c>
+      <c r="G32" t="s">
+        <v>244</v>
+      </c>
+      <c r="H32" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" t="s">
+        <v>245</v>
+      </c>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" t="s">
+        <v>246</v>
+      </c>
+      <c r="B33" t="s">
+        <v>247</v>
+      </c>
+      <c r="C33" t="s">
+        <v>248</v>
+      </c>
+      <c r="D33" t="s">
+        <v>249</v>
+      </c>
+      <c r="E33" t="s">
+        <v>250</v>
+      </c>
+      <c r="F33" t="s">
+        <v>251</v>
+      </c>
+      <c r="G33" t="s">
+        <v>252</v>
+      </c>
+      <c r="H33" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" t="s">
+        <v>253</v>
+      </c>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" t="s">
+        <v>254</v>
+      </c>
+      <c r="B34" t="s">
+        <v>247</v>
+      </c>
+      <c r="C34" t="s">
+        <v>255</v>
+      </c>
+      <c r="D34" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" t="s">
+        <v>190</v>
+      </c>
+      <c r="F34" t="s">
+        <v>256</v>
+      </c>
+      <c r="G34" t="s">
+        <v>257</v>
+      </c>
+      <c r="H34" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" t="s">
+        <v>258</v>
+      </c>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" t="s">
+        <v>259</v>
+      </c>
+      <c r="B35" t="s">
+        <v>247</v>
+      </c>
+      <c r="C35" t="s">
+        <v>260</v>
+      </c>
+      <c r="D35" t="s">
+        <v>261</v>
+      </c>
+      <c r="E35" t="s">
+        <v>262</v>
+      </c>
+      <c r="F35" t="s">
+        <v>263</v>
+      </c>
+      <c r="G35" t="s">
+        <v>264</v>
+      </c>
+      <c r="H35" t="s">
+        <v>36</v>
+      </c>
+      <c r="I35" t="s">
+        <v>265</v>
+      </c>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" t="s">
+        <v>266</v>
+      </c>
+      <c r="B36" t="s">
+        <v>247</v>
+      </c>
+      <c r="C36" t="s">
+        <v>267</v>
+      </c>
+      <c r="D36" t="s">
+        <v>268</v>
+      </c>
+      <c r="E36" t="s">
+        <v>269</v>
+      </c>
+      <c r="F36" t="s">
+        <v>270</v>
+      </c>
+      <c r="G36" t="s">
+        <v>271</v>
+      </c>
+      <c r="H36" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" t="s">
+        <v>272</v>
+      </c>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" t="s">
+        <v>273</v>
+      </c>
+      <c r="B37" t="s">
+        <v>247</v>
+      </c>
+      <c r="C37" t="s">
+        <v>274</v>
+      </c>
+      <c r="D37" t="s">
+        <v>157</v>
+      </c>
+      <c r="E37" t="s">
+        <v>275</v>
+      </c>
+      <c r="F37" t="s">
+        <v>276</v>
+      </c>
+      <c r="G37" t="s">
+        <v>277</v>
+      </c>
+      <c r="H37" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" t="s">
+        <v>278</v>
+      </c>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" t="s">
+        <v>279</v>
+      </c>
+      <c r="B38" t="s">
+        <v>247</v>
+      </c>
+      <c r="C38" t="s">
+        <v>280</v>
+      </c>
+      <c r="D38" t="s">
+        <v>281</v>
+      </c>
+      <c r="E38" t="s">
+        <v>282</v>
+      </c>
+      <c r="F38" t="s">
+        <v>283</v>
+      </c>
+      <c r="G38" t="s">
+        <v>284</v>
+      </c>
+      <c r="H38" t="s">
+        <v>36</v>
+      </c>
+      <c r="I38" t="s">
+        <v>285</v>
+      </c>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" t="s">
+        <v>286</v>
+      </c>
+      <c r="B39" t="s">
+        <v>247</v>
+      </c>
+      <c r="C39" t="s">
+        <v>287</v>
+      </c>
+      <c r="D39" t="s">
+        <v>288</v>
+      </c>
+      <c r="E39" t="s">
+        <v>289</v>
+      </c>
+      <c r="F39" t="s">
+        <v>290</v>
+      </c>
+      <c r="G39" t="s">
+        <v>291</v>
+      </c>
+      <c r="H39" t="s">
+        <v>36</v>
+      </c>
+      <c r="I39" t="s">
+        <v>292</v>
+      </c>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" t="s">
+        <v>293</v>
+      </c>
+      <c r="B40" t="s">
+        <v>247</v>
+      </c>
+      <c r="C40" t="s">
+        <v>294</v>
+      </c>
+      <c r="D40" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" t="s">
+        <v>295</v>
+      </c>
+      <c r="F40" t="s">
+        <v>296</v>
+      </c>
+      <c r="G40" t="s">
+        <v>297</v>
+      </c>
+      <c r="H40" t="s">
+        <v>36</v>
+      </c>
+      <c r="I40" t="s">
+        <v>298</v>
+      </c>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" t="s">
+        <v>299</v>
+      </c>
+      <c r="B41" t="s">
+        <v>247</v>
+      </c>
+      <c r="C41" t="s">
+        <v>300</v>
+      </c>
+      <c r="D41" t="s">
+        <v>301</v>
+      </c>
+      <c r="E41" t="s">
+        <v>302</v>
+      </c>
+      <c r="F41" t="s">
+        <v>303</v>
+      </c>
+      <c r="G41" t="s">
+        <v>304</v>
+      </c>
+      <c r="H41" t="s">
+        <v>36</v>
+      </c>
+      <c r="I41" t="s">
+        <v>305</v>
+      </c>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" t="s">
+        <v>306</v>
+      </c>
+      <c r="B42" t="s">
+        <v>307</v>
+      </c>
+      <c r="C42" t="s">
+        <v>308</v>
+      </c>
+      <c r="D42" t="s">
+        <v>309</v>
+      </c>
+      <c r="E42" t="s">
+        <v>310</v>
+      </c>
+      <c r="F42" t="s">
+        <v>311</v>
+      </c>
+      <c r="G42" t="s">
+        <v>312</v>
+      </c>
+      <c r="H42" t="s">
+        <v>36</v>
+      </c>
+      <c r="I42" t="s">
+        <v>313</v>
+      </c>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" t="s">
+        <v>314</v>
+      </c>
+      <c r="B43" t="s">
+        <v>307</v>
+      </c>
+      <c r="C43" t="s">
+        <v>315</v>
+      </c>
+      <c r="D43" t="s">
+        <v>123</v>
+      </c>
+      <c r="E43" t="s">
+        <v>316</v>
+      </c>
+      <c r="F43" t="s">
+        <v>317</v>
+      </c>
+      <c r="G43" t="s">
+        <v>318</v>
+      </c>
+      <c r="H43" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" t="s">
+        <v>319</v>
+      </c>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" t="s">
+        <v>320</v>
+      </c>
+      <c r="B44" t="s">
+        <v>321</v>
+      </c>
+      <c r="C44" t="s">
+        <v>322</v>
+      </c>
+      <c r="D44" t="s">
+        <v>323</v>
+      </c>
+      <c r="E44" t="s">
+        <v>324</v>
+      </c>
+      <c r="F44" t="s">
+        <v>325</v>
+      </c>
+      <c r="G44" t="s">
+        <v>326</v>
+      </c>
+      <c r="H44" t="s">
+        <v>36</v>
+      </c>
+      <c r="I44" t="s">
+        <v>327</v>
+      </c>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" t="s">
+        <v>328</v>
+      </c>
+      <c r="B45" t="s">
+        <v>321</v>
+      </c>
+      <c r="C45" t="s">
+        <v>329</v>
+      </c>
+      <c r="D45" t="s">
+        <v>330</v>
+      </c>
+      <c r="E45" t="s">
+        <v>331</v>
+      </c>
+      <c r="F45" t="s">
+        <v>332</v>
+      </c>
+      <c r="G45" t="s">
+        <v>333</v>
+      </c>
+      <c r="H45" t="s">
+        <v>23</v>
+      </c>
+      <c r="I45" t="s">
+        <v>334</v>
+      </c>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" t="s">
+        <v>335</v>
+      </c>
+      <c r="B46" t="s">
+        <v>321</v>
+      </c>
+      <c r="C46" t="s">
+        <v>336</v>
+      </c>
+      <c r="D46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E46" t="s">
+        <v>337</v>
+      </c>
+      <c r="F46" t="s">
+        <v>338</v>
+      </c>
+      <c r="G46" t="s">
+        <v>339</v>
+      </c>
+      <c r="H46" t="s">
+        <v>36</v>
+      </c>
+      <c r="I46" t="s">
+        <v>340</v>
+      </c>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" t="s">
+        <v>341</v>
+      </c>
+      <c r="B47" t="s">
+        <v>342</v>
+      </c>
+      <c r="C47" t="s">
+        <v>343</v>
+      </c>
+      <c r="D47" t="s">
+        <v>344</v>
+      </c>
+      <c r="E47" t="s">
+        <v>345</v>
+      </c>
+      <c r="F47" t="s">
+        <v>346</v>
+      </c>
+      <c r="G47" t="s">
+        <v>347</v>
+      </c>
+      <c r="H47" t="s">
+        <v>23</v>
+      </c>
+      <c r="I47" t="s">
+        <v>348</v>
+      </c>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" t="s">
+        <v>349</v>
+      </c>
+      <c r="B48" t="s">
+        <v>342</v>
+      </c>
+      <c r="C48" t="s">
+        <v>350</v>
+      </c>
+      <c r="D48" t="s">
+        <v>351</v>
+      </c>
+      <c r="E48" t="s">
+        <v>352</v>
+      </c>
+      <c r="F48" t="s">
+        <v>353</v>
+      </c>
+      <c r="G48" t="s">
+        <v>354</v>
+      </c>
+      <c r="H48" t="s">
+        <v>36</v>
+      </c>
+      <c r="I48" t="s">
+        <v>355</v>
+      </c>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" t="s">
+        <v>356</v>
+      </c>
+      <c r="B49" t="s">
+        <v>342</v>
+      </c>
+      <c r="C49" t="s">
+        <v>357</v>
+      </c>
+      <c r="D49" t="s">
+        <v>358</v>
+      </c>
+      <c r="E49" t="s">
+        <v>157</v>
+      </c>
+      <c r="F49" t="s">
+        <v>251</v>
+      </c>
+      <c r="G49" t="s">
+        <v>359</v>
+      </c>
+      <c r="H49" t="s">
+        <v>23</v>
+      </c>
+      <c r="I49" t="s">
+        <v>360</v>
+      </c>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" t="s">
+        <v>361</v>
+      </c>
+      <c r="B50" t="s">
+        <v>362</v>
+      </c>
+      <c r="C50" t="s">
+        <v>363</v>
+      </c>
+      <c r="D50" t="s">
+        <v>364</v>
+      </c>
+      <c r="E50" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" t="s">
+        <v>365</v>
+      </c>
+      <c r="G50" t="s">
+        <v>366</v>
+      </c>
+      <c r="H50" t="s">
+        <v>23</v>
+      </c>
+      <c r="I50" t="s">
+        <v>367</v>
+      </c>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" t="s">
+        <v>368</v>
+      </c>
+      <c r="B51" t="s">
+        <v>369</v>
+      </c>
+      <c r="C51" t="s">
+        <v>370</v>
+      </c>
+      <c r="D51" t="s">
+        <v>242</v>
+      </c>
+      <c r="E51" t="s">
+        <v>371</v>
+      </c>
+      <c r="F51" t="s">
+        <v>372</v>
+      </c>
+      <c r="G51" t="s">
+        <v>373</v>
+      </c>
+      <c r="H51" t="s">
+        <v>23</v>
+      </c>
+      <c r="I51" t="s">
+        <v>374</v>
+      </c>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" t="s">
+        <v>375</v>
+      </c>
+      <c r="B52" t="s">
+        <v>369</v>
+      </c>
+      <c r="C52" t="s">
+        <v>376</v>
+      </c>
+      <c r="D52" t="s">
+        <v>377</v>
+      </c>
+      <c r="E52" t="s">
+        <v>378</v>
+      </c>
+      <c r="F52" t="s">
+        <v>379</v>
+      </c>
+      <c r="G52" t="s">
+        <v>380</v>
+      </c>
+      <c r="H52" t="s">
+        <v>36</v>
+      </c>
+      <c r="I52" t="s">
+        <v>381</v>
+      </c>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
